--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7626_date_method test.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7626_date_method test.xlsx
@@ -4,67 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12330" windowWidth="25875" xWindow="480" yWindow="60"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="25875" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" count="85" uniqueCount="66">
-  <si>
-    <t>Method String addDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>return  LocalDate.parse(date).plus(days, ChronoUnit.DAYS);</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>dependency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import java.time.LocalDate </t>
-  </si>
-  <si>
-    <t>java.time.LocalDate</t>
-  </si>
-  <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>return  LocalDate.parse(date);</t>
-  </si>
-  <si>
-    <t>//Environment</t>
-  </si>
-  <si>
-    <t>Method Date addDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>Method LocalDateaddDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>Method LocalDate addDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>return  LocalDate.parse(date).plus(days);</t>
-  </si>
-  <si>
-    <t>java.time.LocalDate1</t>
-  </si>
-  <si>
-    <t>java.time.temporal.ChronoUnit</t>
-  </si>
-  <si>
-    <t>Test addDaysToDate addDaysToDateTest</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -78,153 +28,41 @@
     <t>Days</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>2007-12-03</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>_res_</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>2007-12-03</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2007-12-05</t>
-  </si>
-  <si>
-    <t>05/12/2007</t>
-  </si>
-  <si>
-    <t>_res_ : LocalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = new LocalDate ("2007-12-05")</t>
-  </si>
-  <si>
-    <t>= new LocalDate() "2007-12-05"</t>
-  </si>
-  <si>
-    <t>LocalDate.parse("2007-12-05")</t>
-  </si>
-  <si>
-    <t xsi:nil="true"/>
-  </si>
-  <si>
-    <t>= LocalDate.parse("2007-12-05")</t>
-  </si>
-  <si>
-    <t>Lo_res_</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <t>= LocalDate.parse("2007-12-05")</t>
-  </si>
-  <si>
-    <t>LocalDate.parse(_res_)</t>
-  </si>
-  <si>
-    <t>2007-12-03</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <t>"2007-12-03"</t>
-  </si>
-  <si>
-    <t>12/5/2007</t>
-  </si>
-  <si>
-    <t>34534535</t>
-  </si>
-  <si>
-    <t>LocalDate.parse</t>
-  </si>
-  <si>
-    <t>LocalDate.parse(2007-12-03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = LocalDate.parse(2007-12-03)</t>
-  </si>
-  <si>
-    <t>= LocalDate.parse("2007-12-03")</t>
-  </si>
-  <si>
-    <t>LocalDate.parse("2007-12-03")</t>
-  </si>
-  <si>
-    <t>=LocalDate.parse("2007-12-03")</t>
-  </si>
-  <si>
-    <t>_res_ :</t>
-  </si>
-  <si>
-    <t>_res_ : LocalDate</t>
-  </si>
-  <si>
-    <t>2007-12-03</t>
-  </si>
-  <si>
-    <t>_res_ : Date</t>
-  </si>
-  <si>
-    <t>_res_ : Datett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_res_ </t>
-  </si>
-  <si>
-    <t>_res_.parse()</t>
-  </si>
-  <si>
-    <t>_res_.parse("2007-12-03")</t>
-  </si>
-  <si>
-    <t>_res_.toString()</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <t>_res_.getDayOfYear()</t>
-  </si>
-  <si>
-    <t>Method Date addDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>Method LocalDate addDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>return  LocalDate.parse(date).plus(days, ChronoUnit.DAYS).toString();</t>
-  </si>
-  <si>
-    <t>Method Dtring addDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>Method String addDaysToDate(String date, int days)</t>
-  </si>
-  <si>
-    <t>_res_.</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <t>2007-12-05</t>
+    <t>Method String plus(String date, int days)</t>
+  </si>
+  <si>
+    <t>return  concatenate(date, " + ", days);</t>
+  </si>
+  <si>
+    <t>Test plus</t>
+  </si>
+  <si>
+    <t>123 + 7</t>
+  </si>
+  <si>
+    <t>2007-12-03 + 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="000000" theme="1"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -238,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,33 +85,31 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -299,10 +135,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
-      <tableStyleElement dxfId="1" type="wholeTable"/>
-      <tableStyleElement dxfId="0" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -318,10 +154,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -479,7 +315,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -488,13 +324,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -504,7 +340,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -513,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -522,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -532,12 +368,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -568,7 +404,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -587,7 +423,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -599,117 +435,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>62</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="B13:D13"/>
+  <mergeCells count="1">
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>